--- a/ESTUDOS/CodigoInteligente/Material de leitura/DownLoad1/06+CADASTRO+DAS+CARACTERÍSTICAS+ABR.xlsx
+++ b/ESTUDOS/CodigoInteligente/Material de leitura/DownLoad1/06+CADASTRO+DAS+CARACTERÍSTICAS+ABR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DBrizes Celestino Serviços - ME\UDEMY\Configurador de Produtos\MATERIAL DE APOIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rogério\Documents\Workspace\ESTUDOS\CodigoInteligente\Material de leitura\DownLoad1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1673EDD1-C7A7-481D-BDC5-9A25F1FB43A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E287DF59-5020-4F09-8284-423D76678FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12200" xr2:uid="{8A27DD40-0B84-4F36-A3D1-233F6A01A0CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8A27DD40-0B84-4F36-A3D1-233F6A01A0CD}"/>
   </bookViews>
   <sheets>
     <sheet name="SBQ ABR" sheetId="19" r:id="rId1"/>
@@ -228,6 +228,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>381626</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>108277</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1454D6E2-9C18-5F11-E4C6-C9DBA612185A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3498850" y="1473200"/>
+          <a:ext cx="12179926" cy="6369377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,24 +579,24 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -576,7 +625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -603,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -630,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -657,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -684,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -711,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -740,5 +789,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>